--- a/Additional File 01.xlsx
+++ b/Additional File 01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Article\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murilo\Documents\GitHub\DepthVariation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Mean population cluster p-values based on the distances from Figure 3</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>ACB</t>
-  </si>
-  <si>
-    <t>&lt; 0,01</t>
   </si>
   <si>
     <t>GWD</t>
@@ -74,8 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -94,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,15 +120,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -143,15 +147,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,7 +178,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -258,7 +264,7 @@
             <c:numRef>
               <c:f>[1]Planilha1!$H$3:$Q$3</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -362,7 +368,7 @@
             <c:numRef>
               <c:f>[1]Planilha1!$H$4:$Q$4</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.62304954898771903</c:v>
@@ -466,7 +472,7 @@
             <c:numRef>
               <c:f>[1]Planilha1!$H$5:$Q$5</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>39.166603299451403</c:v>
@@ -570,7 +576,7 @@
             <c:numRef>
               <c:f>[1]Planilha1!$H$6:$Q$6</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>973.70920738673897</c:v>
@@ -674,7 +680,7 @@
             <c:numRef>
               <c:f>[1]Planilha1!$H$7:$Q$7</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>581.79661306655805</c:v>
@@ -778,7 +784,7 @@
             <c:numRef>
               <c:f>[1]Planilha1!$H$8:$Q$8</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>651.14930332928702</c:v>
@@ -884,7 +890,7 @@
             <c:numRef>
               <c:f>[1]Planilha1!$H$9:$Q$9</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4.5069327580254601</c:v>
@@ -991,7 +997,7 @@
             <c:numRef>
               <c:f>[1]Planilha1!$H$10:$Q$10</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.40750564884854501</c:v>
@@ -1097,7 +1103,7 @@
             <c:numRef>
               <c:f>[1]Planilha1!$H$11:$Q$11</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.75593684446175002</c:v>
@@ -1204,7 +1210,7 @@
             <c:numRef>
               <c:f>[1]Planilha1!$H$12:$Q$12</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4.2841109960625996</c:v>
@@ -1248,11 +1254,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1159518736"/>
-        <c:axId val="-1159511664"/>
+        <c:axId val="-1840554352"/>
+        <c:axId val="-1840559792"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-1159518736"/>
+        <c:axId val="-1840554352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1296,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1159511664"/>
+        <c:crossAx val="-1840559792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,7 +1304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1159511664"/>
+        <c:axId val="-1840559792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1324,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1349,7 +1355,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1159518736"/>
+        <c:crossAx val="-1840554352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1974,7 +1980,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1985,7 +1991,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301574" cy="6079537"/>
+    <xdr:ext cx="9647115" cy="6008077"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2405,9 +2411,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2445,7 +2451,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2517,7 +2523,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2921,7 +2927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2936,270 +2942,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="2" t="str">
         <f>A3</f>
         <v>IBS</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="2" t="str">
         <f>A4</f>
         <v>ACB</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="3" t="str">
         <f>A5</f>
         <v>GWD</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="2" t="str">
         <f>A6</f>
         <v>ESN</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" s="2" t="str">
         <f>A7</f>
         <v>MSL</v>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" s="2" t="str">
         <f>A8</f>
         <v>YRI</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" s="2" t="str">
         <f>A9</f>
         <v>JPT</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="J2" s="2" t="str">
         <f>A10</f>
         <v>LWK</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.62304954898771903</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>39.166603299451403</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>21.2593262599535</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>973.70920738673897</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>191.43882999471501</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>40.994628050713402</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
         <v>581.79661306655805</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>124.752820622954</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>23.284691729671302</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>32.002073394206697</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
         <v>651.14930332928702</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>120.738136431984</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>26.520036885630301</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>60.254569743256504</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>6.1562413421350302</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
         <v>4.5069327580254601</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>3.3980418999767901</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>16.1194469911262</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>61.128305386361603</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>22.0392747810535</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>15.3760002752984</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.40750564884854501</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.20086081551299101</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>21.173599582393599</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>127.004178003294</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>80.625806732577502</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>69.271816356426498</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>3.5900761119057498</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.75593684446175002</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.163195720448501</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>15.626887875759</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>92.288782192168298</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>60.225693648865303</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>54.734733971985598</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>2.1928252221312401</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.467432702713724</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
         <v>4.2841109960625996</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>5.2658698602798903</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>31.259531305215202</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>128.59857676349901</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>84.729295970375205</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>71.834956665704894</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>5.6164411546854698</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>5.3708484892647004</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>4.3772451363328804</v>
       </c>
     </row>
@@ -3215,287 +3221,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="2" t="str">
         <f>A3</f>
         <v>IBS</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="2" t="str">
         <f>A4</f>
         <v>ACB</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="3" t="str">
         <f>A5</f>
         <v>GWD</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="2" t="str">
         <f>A6</f>
         <v>ESN</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" s="2" t="str">
         <f>A7</f>
         <v>MSL</v>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" s="2" t="str">
         <f>A8</f>
         <v>YRI</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" s="2" t="str">
         <f>A9</f>
         <v>JPT</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="J2" s="2" t="str">
         <f>A10</f>
         <v>LWK</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.41366666666666702</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="B3" s="7">
+        <v>0.41269</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2.0666666666666701E-2</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="7">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.1350000000000001E-2</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6">
-        <v>6.5333333333333299E-2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6.2350000000000003E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6">
-        <v>7.5666666666666701E-2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7.8780000000000003E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.89183000000000001</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.164333333333333</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.111</v>
-      </c>
-      <c r="D8" s="6">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1.7666666666666699E-2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.16075999999999999</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.10567</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5.6239999999999998E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.052E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.6590000000000001E-2</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.68033333333333301</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.03333333333333E-2</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.62129000000000001</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.68342999999999998</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8.9599999999999992E-3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3.5E-4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2.9E-4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.20518</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.29637999999999998</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.60431999999999997</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5.645E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6.96E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3.65E-3</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.31372</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.65102000000000004</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.30366666666666697</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6">
-        <v>7.6666666666666697E-3</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.329666666666667</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.65566666666666695</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.191</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.163333333333333</v>
-      </c>
-      <c r="J11" s="8">
-        <v>6.3E-2</v>
+      <c r="B11" s="9">
+        <v>0.20671</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3.7760000000000002E-2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="G11" s="9">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.18447</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.15841</v>
+      </c>
+      <c r="J11" s="9">
+        <v>6.5949999999999995E-2</v>
       </c>
     </row>
   </sheetData>
